--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\VisualStudio\ExcelToJSON\ExcelToJSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26862995-C3F5-42F6-977B-BED32216A405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F31A58-7C8B-4F22-8D56-FC1A0785E31B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Title</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Ignore</t>
+  </si>
+  <si>
+    <t>Published</t>
   </si>
 </sst>
 </file>
@@ -429,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +446,7 @@
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -462,8 +465,11 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -473,8 +479,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -484,8 +493,11 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -495,8 +507,11 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -506,8 +521,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -517,8 +535,11 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -527,6 +548,9 @@
       </c>
       <c r="E7" t="s">
         <v>20</v>
+      </c>
+      <c r="G7">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
